--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\algo-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C0949-4958-44D9-BEF0-4747ABA1CBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81A00D-17E3-4BD6-9FEF-2D0492A73B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38415" yWindow="10425" windowWidth="38640" windowHeight="15840" xr2:uid="{293C48EB-EB39-4F3D-967F-ED7ED09D9166}"/>
+    <workbookView xWindow="38280" yWindow="-5775" windowWidth="38640" windowHeight="15840" xr2:uid="{293C48EB-EB39-4F3D-967F-ED7ED09D9166}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Tree</t>
   </si>
@@ -59,40 +59,43 @@
     <t>Opertion</t>
   </si>
   <si>
-    <t>114.6935ms</t>
-  </si>
-  <si>
-    <t>10.9709ms</t>
-  </si>
-  <si>
-    <t>13.9627ms</t>
-  </si>
-  <si>
-    <t>4m34.697504s</t>
-  </si>
-  <si>
-    <t>21.5865915s</t>
-  </si>
-  <si>
-    <t>134.638ms</t>
-  </si>
-  <si>
-    <t>7.9788ms</t>
-  </si>
-  <si>
-    <t>7.9795ms</t>
-  </si>
-  <si>
-    <t>63.8303ms</t>
-  </si>
-  <si>
-    <t>9.9733ms</t>
-  </si>
-  <si>
-    <t>8.9773ms</t>
-  </si>
-  <si>
-    <t>datset 70 000 element</t>
+    <t>datset 80 000 element</t>
+  </si>
+  <si>
+    <t>37.8713ms</t>
+  </si>
+  <si>
+    <t>35.0506ms</t>
+  </si>
+  <si>
+    <t>1.9949ms</t>
+  </si>
+  <si>
+    <t>1.9935ms</t>
+  </si>
+  <si>
+    <t>22.401988s</t>
+  </si>
+  <si>
+    <t>1.9185965s</t>
+  </si>
+  <si>
+    <t>1.8780497s</t>
+  </si>
+  <si>
+    <t>997.3µs</t>
+  </si>
+  <si>
+    <t>1.9945ms</t>
+  </si>
+  <si>
+    <t>23.9649ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.964ms</t>
+  </si>
+  <si>
+    <t>1.9947ms</t>
   </si>
 </sst>
 </file>
@@ -214,31 +217,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +561,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -584,79 +587,79 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\algo-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81A00D-17E3-4BD6-9FEF-2D0492A73B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D83AE1-BF76-47D7-9BC5-FA0FDA242F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-5775" windowWidth="38640" windowHeight="15840" xr2:uid="{293C48EB-EB39-4F3D-967F-ED7ED09D9166}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Opertion</t>
-  </si>
-  <si>
     <t>datset 80 000 element</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>1.9947ms</t>
+  </si>
+  <si>
+    <t>Operation</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -618,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -656,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
